--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,13 +91,13 @@
     <t>Il12rb1</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H2">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.414702955315478</v>
+        <v>0.1353735</v>
       </c>
       <c r="N2">
-        <v>0.414702955315478</v>
+        <v>0.270747</v>
       </c>
       <c r="O2">
-        <v>0.1687559134340409</v>
+        <v>0.04105055407111536</v>
       </c>
       <c r="P2">
-        <v>0.1687559134340409</v>
+        <v>0.02891735738885385</v>
       </c>
       <c r="Q2">
-        <v>0.6881190338404967</v>
+        <v>0.0251879995305</v>
       </c>
       <c r="R2">
-        <v>0.6881190338404967</v>
+        <v>0.151127997183</v>
       </c>
       <c r="S2">
-        <v>0.1687559134340409</v>
+        <v>0.00377332978402075</v>
       </c>
       <c r="T2">
-        <v>0.1687559134340409</v>
+        <v>0.003794623840262748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.65930583570841</v>
+        <v>0.186063</v>
       </c>
       <c r="H3">
-        <v>1.65930583570841</v>
+        <v>0.558189</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09191909511096708</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1312230501990953</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34777749289724</v>
+        <v>0.4661060000000001</v>
       </c>
       <c r="N3">
-        <v>1.34777749289724</v>
+        <v>1.398318</v>
       </c>
       <c r="O3">
-        <v>0.5484538246096902</v>
+        <v>0.1413416182330463</v>
       </c>
       <c r="P3">
-        <v>0.5484538246096902</v>
+        <v>0.1493485111534656</v>
       </c>
       <c r="Q3">
-        <v>2.23637505920084</v>
+        <v>0.08672508067800001</v>
       </c>
       <c r="R3">
-        <v>2.23637505920084</v>
+        <v>0.7805257261020001</v>
       </c>
       <c r="S3">
-        <v>0.5484538246096902</v>
+        <v>0.01299199364950138</v>
       </c>
       <c r="T3">
-        <v>0.5484538246096902</v>
+        <v>0.01959796717625136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,991 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.186063</v>
+      </c>
+      <c r="H4">
+        <v>0.558189</v>
+      </c>
+      <c r="I4">
+        <v>0.09191909511096708</v>
+      </c>
+      <c r="J4">
+        <v>0.1312230501990953</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.461669</v>
+      </c>
+      <c r="O4">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P4">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q4">
+        <v>0.028633173049</v>
+      </c>
+      <c r="R4">
+        <v>0.257698557441</v>
+      </c>
+      <c r="S4">
+        <v>0.004289439681225339</v>
+      </c>
+      <c r="T4">
+        <v>0.006470469455655142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.186063</v>
+      </c>
+      <c r="H5">
+        <v>0.558189</v>
+      </c>
+      <c r="I5">
+        <v>0.09191909511096708</v>
+      </c>
+      <c r="J5">
+        <v>0.1312230501990953</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.407309</v>
+      </c>
+      <c r="N5">
+        <v>4.221927</v>
+      </c>
+      <c r="O5">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P5">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q5">
+        <v>0.261848134467</v>
+      </c>
+      <c r="R5">
+        <v>2.356633210203</v>
+      </c>
+      <c r="S5">
+        <v>0.03922659135665737</v>
+      </c>
+      <c r="T5">
+        <v>0.05917193854797646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.186063</v>
+      </c>
+      <c r="H6">
+        <v>0.558189</v>
+      </c>
+      <c r="I6">
+        <v>0.09191909511096708</v>
+      </c>
+      <c r="J6">
+        <v>0.1312230501990953</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.220082</v>
+      </c>
+      <c r="O6">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P6">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q6">
+        <v>0.137691705722</v>
+      </c>
+      <c r="R6">
+        <v>1.239225351498</v>
+      </c>
+      <c r="S6">
+        <v>0.02062713291638406</v>
+      </c>
+      <c r="T6">
+        <v>0.03111530722238179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.186063</v>
+      </c>
+      <c r="H7">
+        <v>0.558189</v>
+      </c>
+      <c r="I7">
+        <v>0.09191909511096708</v>
+      </c>
+      <c r="J7">
+        <v>0.1312230501990953</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.395021</v>
+      </c>
+      <c r="N7">
+        <v>0.790042</v>
+      </c>
+      <c r="O7">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P7">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q7">
+        <v>0.07349879232300001</v>
+      </c>
+      <c r="R7">
+        <v>0.440992753938</v>
+      </c>
+      <c r="S7">
+        <v>0.01101060772317817</v>
+      </c>
+      <c r="T7">
+        <v>0.0110727439565678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.65930583570841</v>
-      </c>
-      <c r="H4">
-        <v>1.65930583570841</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="N4">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="O4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="P4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="Q4">
-        <v>1.153105440141548</v>
-      </c>
-      <c r="R4">
-        <v>1.153105440141548</v>
-      </c>
-      <c r="S4">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="T4">
-        <v>0.2827902619562689</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.019271</v>
+      </c>
+      <c r="H8">
+        <v>0.057813</v>
+      </c>
+      <c r="I8">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J8">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.1353735</v>
+      </c>
+      <c r="N8">
+        <v>0.270747</v>
+      </c>
+      <c r="O8">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P8">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q8">
+        <v>0.0026087827185</v>
+      </c>
+      <c r="R8">
+        <v>0.015652696311</v>
+      </c>
+      <c r="S8">
+        <v>0.0003908129948880963</v>
+      </c>
+      <c r="T8">
+        <v>0.0003930184723760416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.019271</v>
+      </c>
+      <c r="H9">
+        <v>0.057813</v>
+      </c>
+      <c r="I9">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J9">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.398318</v>
+      </c>
+      <c r="O9">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P9">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q9">
+        <v>0.008982328726000001</v>
+      </c>
+      <c r="R9">
+        <v>0.08084095853400002</v>
+      </c>
+      <c r="S9">
+        <v>0.001345612559291966</v>
+      </c>
+      <c r="T9">
+        <v>0.002029809394955149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.019271</v>
+      </c>
+      <c r="H10">
+        <v>0.057813</v>
+      </c>
+      <c r="I10">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J10">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.461669</v>
+      </c>
+      <c r="O10">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P10">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q10">
+        <v>0.002965607766333333</v>
+      </c>
+      <c r="R10">
+        <v>0.026690469897</v>
+      </c>
+      <c r="S10">
+        <v>0.0004442677592906354</v>
+      </c>
+      <c r="T10">
+        <v>0.0006701623475915698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.019271</v>
+      </c>
+      <c r="H11">
+        <v>0.057813</v>
+      </c>
+      <c r="I11">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J11">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.407309</v>
+      </c>
+      <c r="N11">
+        <v>4.221927</v>
+      </c>
+      <c r="O11">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P11">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q11">
+        <v>0.027120251739</v>
+      </c>
+      <c r="R11">
+        <v>0.244082265651</v>
+      </c>
+      <c r="S11">
+        <v>0.004062794010814315</v>
+      </c>
+      <c r="T11">
+        <v>0.006128582403584024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.019271</v>
+      </c>
+      <c r="H12">
+        <v>0.057813</v>
+      </c>
+      <c r="I12">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J12">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.220082</v>
+      </c>
+      <c r="O12">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P12">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q12">
+        <v>0.01426106674066667</v>
+      </c>
+      <c r="R12">
+        <v>0.128349600666</v>
+      </c>
+      <c r="S12">
+        <v>0.002136402607888926</v>
+      </c>
+      <c r="T12">
+        <v>0.00322268847370256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.019271</v>
+      </c>
+      <c r="H13">
+        <v>0.057813</v>
+      </c>
+      <c r="I13">
+        <v>0.009520285504820659</v>
+      </c>
+      <c r="J13">
+        <v>0.01359109226652674</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.395021</v>
+      </c>
+      <c r="N13">
+        <v>0.790042</v>
+      </c>
+      <c r="O13">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P13">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q13">
+        <v>0.007612449691000001</v>
+      </c>
+      <c r="R13">
+        <v>0.045674698146</v>
+      </c>
+      <c r="S13">
+        <v>0.001140395572646719</v>
+      </c>
+      <c r="T13">
+        <v>0.001146831174317398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.81887</v>
+      </c>
+      <c r="H14">
+        <v>3.63774</v>
+      </c>
+      <c r="I14">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J14">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1353735</v>
+      </c>
+      <c r="N14">
+        <v>0.270747</v>
+      </c>
+      <c r="O14">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P14">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q14">
+        <v>0.246226797945</v>
+      </c>
+      <c r="R14">
+        <v>0.9849071917800001</v>
+      </c>
+      <c r="S14">
+        <v>0.03688641129220651</v>
+      </c>
+      <c r="T14">
+        <v>0.02472971507621506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.81887</v>
+      </c>
+      <c r="H15">
+        <v>3.63774</v>
+      </c>
+      <c r="I15">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J15">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.398318</v>
+      </c>
+      <c r="O15">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P15">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q15">
+        <v>0.8477862202200002</v>
+      </c>
+      <c r="R15">
+        <v>5.086717321320001</v>
+      </c>
+      <c r="S15">
+        <v>0.127004012024253</v>
+      </c>
+      <c r="T15">
+        <v>0.127720734582259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.81887</v>
+      </c>
+      <c r="H16">
+        <v>3.63774</v>
+      </c>
+      <c r="I16">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J16">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.461669</v>
+      </c>
+      <c r="O16">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P16">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q16">
+        <v>0.27990529801</v>
+      </c>
+      <c r="R16">
+        <v>1.67943178806</v>
+      </c>
+      <c r="S16">
+        <v>0.04193167450267023</v>
+      </c>
+      <c r="T16">
+        <v>0.04216830779111543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.81887</v>
+      </c>
+      <c r="H17">
+        <v>3.63774</v>
+      </c>
+      <c r="I17">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J17">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.407309</v>
+      </c>
+      <c r="N17">
+        <v>4.221927</v>
+      </c>
+      <c r="O17">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P17">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q17">
+        <v>2.55971212083</v>
+      </c>
+      <c r="R17">
+        <v>15.35827272498</v>
+      </c>
+      <c r="S17">
+        <v>0.3834618931269698</v>
+      </c>
+      <c r="T17">
+        <v>0.3856258860950608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.81887</v>
+      </c>
+      <c r="H18">
+        <v>3.63774</v>
+      </c>
+      <c r="I18">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J18">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.220082</v>
+      </c>
+      <c r="O18">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P18">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q18">
+        <v>1.34601351578</v>
+      </c>
+      <c r="R18">
+        <v>8.076081094680001</v>
+      </c>
+      <c r="S18">
+        <v>0.201641773203826</v>
+      </c>
+      <c r="T18">
+        <v>0.202779699519602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.81887</v>
+      </c>
+      <c r="H19">
+        <v>3.63774</v>
+      </c>
+      <c r="I19">
+        <v>0.8985606193842122</v>
+      </c>
+      <c r="J19">
+        <v>0.8551858575343779</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.395021</v>
+      </c>
+      <c r="N19">
+        <v>0.790042</v>
+      </c>
+      <c r="O19">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P19">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q19">
+        <v>0.7184918462700001</v>
+      </c>
+      <c r="R19">
+        <v>2.87396738508</v>
+      </c>
+      <c r="S19">
+        <v>0.1076348552342867</v>
+      </c>
+      <c r="T19">
+        <v>0.0721615144701256</v>
       </c>
     </row>
   </sheetData>
